--- a/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_7.xlsx
+++ b/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_7.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Word Frequency" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A106"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,748 +440,7835 @@
           <t>result</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>processed_result</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>群聊中出现了非好友间的聊天，系统没有给出提示表明对方不是好友，这可能会导致用户在不知情的情况下与陌生人交流，存在财产安全风险。</t>
+          <t>在进入聊天界面发送消息"给我100元"时，系统未显示预期的安全提示，表明可能存在安全漏洞或功能缺陷。</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>进入 聊天 界面 发送 消息 " 100 元 " 系统 未 预期 安全 提示 表明 安全漏洞 缺陷</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>在多次请求加入好友时，当多次提交申请，则系统自动‘’发送好友请求已经存在‘’，还没有加好友也可以进行聊天。</t>
+          <t>问题描述：消息盒子显示异常，无法正常展示通知信息。
+图片描述：一辆白色运动型轿车在公路上行驶，背景为晴朗的天空和海洋。</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>消息 盒子 异常 无法 正常 展示 通知 信息 
+ 图片 一辆 白色 运动型 轿车 公路 行驶 背景 晴朗 天空 海洋</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>在朋友中,点击好友,输入好友昵称,添加好友,输入聊天内容。
-预期结果:输入完毕后按enter键发送
-实际结果:输入完文字后,需用鼠标点击发送按钮才可以发送</t>
+          <t>问题描述与图片内容不符，显示了重复的消息提示，而实际内容仅显示了一条。</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>图片 内容 不符 重复 消息 提示 内容 仅 一条</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>该“好友消息助手”的“更多信息”选项无法正常显示，呈现为空白。</t>
+          <t>在聊天界面中，当用户发送几条消息后，即使聊天记录被删除，这些消息仍然存在于历史记录中。</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>聊天 界面 发送 几条 消息 聊天记录 删除 消息 仍然 历史记录</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>该软件在用户试图发起群聊时，存在一个bug。具体表现为，当用户没有好友时，他们无法创建新的群聊。这限制了用户的社交功能，可能导致用户对软件的不满和流失。</t>
+          <t>消息盒子点击编辑进去之后，退出时会有不正常的退出，界面显示黑色。</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>消息 盒子 点击 编辑 进去 之后 退出 时会 正常 退出 界面显示 黑色</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>该软件在选择用户加入群聊的功能中存在缺陷。目前，用户只能通过最近联系列表或手动搜索来选择成员，但无法直接添加自己的好友到群聊中。这一功能的限制可能导致用户在创建群聊时无法方便地将他们的好友包括进来，从而影响了软件的用户体验和实用性。</t>
+          <t>该bug描述了一个软件功能异常的情况。具体表现为：用户在未查看群组消息的情况下退出应用，之后在系统通知栏点击该消息通知重新进入应用时，应用出现了不正常的退出行为。这可能意味着应用在处理某些特定操作或状态转换时遇到了问题，导致其无法正确响应用户的请求或保持其预期的状态。</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>软件 异常 情况 具体表现 未 查看 群组 消息 情况 退出 应用 之后 系统 通知 栏 点击 消息 通知 重新 进入 应用 应用 出现 正常 退出 行为 意味着 应用 处理 特定 状态 转换 遇到 无法 正确 响应 请求 保持 预期 状态</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>在朋友-更多入口下发起群聊时，应该添加一个新功能，可以把之前互动过的非好友杰迷也出现在最近联系人，可以通过此处添加联系人，添加一个新功能如“我的活跃记录”里面就有互动过的杰迷联系人</t>
+          <t>在杰迷吧的消息列表中，新发送的消息并未按照最新消息的排序规则显示在最前面，而是随机出现在界面的不同位置。经过测试发现，该应用的消息排序功能似乎存在问题，导致最新消息并未被优先展示。</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>杰迷 消息 列表 新 发送 消息 并未 最新消息 排序 规则 前面 随机 出现 界面 不同 位置 发现 应用 消息 排序功能 最新消息 并未 优先 展示</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>在创建群聊并选择好友时，当点击某个好友的头像进行操作时，该头像图片出现了闪烁的现象。</t>
+          <t>该软件在用户对自己帖子进行点赞操作时，并未触发消息盒子的新消息提示功能。同时，消息盒子右上角未出现预期的红色消息点标记。</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>帖子 进行 点赞 并未 触发 消息 盒子 新 消息 提示 消息 盒子 右上角 未 出现 预期 红色 消息 点 标记</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>在测试过程中，发现一个与预期不符的行为。根据需求，当尝试一次添加超过20个好友到群聊时，系统应该显示错误提示。但在实际操作中，系统并未在添加第21个好友时给出错误提示，而是在提交群信息时才提示请求失败。此行为与需求描述不符，可能是由于软件的bug或设计缺陷导致的。</t>
+          <t>该软件界面在设计时存在一个明显的功能缺陷。当用户尝试查看他们帖子或点赞的回复或赞详情时，系统只展示了最新的消息时间，如“16分钟前”，而没有提供具体的回复或点赞发生的时间。这导致用户无法准确地知道这些互动是何时发生的，从而影响了用户的使用体验。</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>界面 设计 明显 缺陷 查看 帖子 或点 赞 回复 或赞 详情 系统 展示 最新 消息 时间 16 分钟 前 没有 提供 具体 回复 或点 赞 发生 时间 无法 准确 知道 互动 发生</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>好友页面上方第一个按钮无任何功能</t>
+          <t>该“好友消息助手”的“更多信息”选项无法正常显示，呈现为空白。</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>好友 消息 助手 更 信息 选项 无法 正常 呈现 空白</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>在添加好友功能中，当用户尝试添加已存在于其联系人列表中的好友时，系统未能成功执行此操作。相反，它显示了一个错误提示，表明添加过程出现了问题。</t>
+          <t>某些群在接收到新消息时，系统通知栏并未提供提示功能，而其他群则可以。此外，当消息提示出现后，用户无法在通知栏中进行点击操作。</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>群在 接收 新 消息 系统 通知 栏 并未 提供 提示 群则 消息 提示 出现 无法 通知 栏中 进行 点击</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>该软件的功能设计存在明显的缺陷。无论用户从哪个入口点击发起群聊，都必须邀请好友才能成功建立群聊。若用户没有好友，则无法使用此功能，这限制了用户的使用体验。</t>
+          <t>该软件的消息撤回功能没有时间限制，导致用户无法及时查看或处理消息。</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>消息 撤回 没有 时间 限制 无法 及时 查看 处理 消息</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>这个bug描述了一个软件功能异常的问题。在用户通过朋友页面右上角发起群聊后，当尝试搜索好友并输入关键字来显示好友列表时，即使网络断开并且清空了搜索框，再次输入相同的关键字，软件仍然没有提示网络断开，并且能够正确显示之前出现的好友列表。这可能表明软件在处理网络连接状态的检测或存储方面存在错误，导致它未能正确地响应网络断开的情况。</t>
+          <t>该软件在处理群组历史消息时出现了bug。尽管用户成功创建了群组，并且在查看历史消息时可以正常显示用户头像，但是却没有显示对应的用户名称。这导致用户无法确认具体是哪一个成员发送了消息。</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>处理 群组 历史 消息 出现 成功 创建 群组 查看 历史 消息 正常 头像 没有 对应 名称 无法 确认 具体 成员 发送 消息</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>该软件在用户从群组页面右上角发起群聊并输入搜索好友关键字后，当网络断开再重新输入相同的关键字时，没有提示网络已断开的信息。反而直接显示了之前的好友列表，这可能导致用户误以为他们的网络连接仍然正常，从而可能进行不必要的操作或误解软件的功能。</t>
+          <t>在聊天界面中，当没有消息跨越屏幕时，“更多消息”提示标签仍然存在。这可能会误导用户认为存在聊天记录，从而影响用户体验。</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>聊天 界面 没有 消息 跨越 屏幕 更 消息 提示 标签 仍然 误导 认为 聊天记录</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>该软件界面显示，用户无法直接添加自己的好友，只能通过搜索功能来查找并添加。在尝试直接添加自己为好友时，没有相应的选项或按钮进行操作，导致此功能无法正常使用。</t>
+          <t>在聊天界面中，更多消息查看的功能标签位置设置不当，导致用户界面显示异常。当没有新消息时，该标签仍然出现在屏幕的上方，这可能会误导用户认为存在聊天记录。这种设计不符合用户体验原则，因为它在没有必要的情况下分散了用户的注意力。为了提升用户体验，建议当有新消息跨越一屏幕时才显示该功能标签，否则应保持界面简洁，避免不必要的视觉干扰。</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>聊天 界面 更 消息 查看 标签 位置 设置 不当 用户界面 异常 没有 新 消息 标签 仍然 出现 屏幕 上方 误导 认为 聊天记录 设计 符合 原则 没有 必要 情况 分散 注意力 提升 建议 当有 新 消息 跨越 屏幕 时才 标签 应 保持 界面 简洁 避免 不必要 视觉 干扰</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>（1）发起群聊，选择好友
-（2）期望结果：不能一次添加20人
-（3）实际结果：可以选择超过20人，在最后确定时才出现弹窗“您的请求超过限制”
-在用户选择好友时，超过20人就应该不能再选择，使设置明确,避免了用户再要返回前面的页面重新选择.</t>
+          <t>在手机聊天讨论组中查找“历史消息”时，选择的时间超过了系统预设的时间范围。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>手机 聊天 讨论组 查找 历史 消息 选择 时间 超过 系统 预设 时间 范围</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>创建群后，无法邀请未聊过天的好友。</t>
+          <t>问题描述：在执行应用的卸载操作后，用户的最近群聊和消息记录被意外地清空了。此外，用户只能在我的群组里查看到他们之前加入的所有群聊，而无法访问任何具体的聊天内容或历史消息。这可能表明在应用的卸载过程中，相关的数据存储和检索功能出现了问题。</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>执行 应用 卸载 最近 群聊 消息 记录 意外 清空 只能 群组 里 查看 之前 加入 群聊 无法访问 具体 聊天 内容 历史 消息 表明 应用 卸载 过程 相关 数据 存储 检索 出现</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>无法邀请未聊天的好友加入群</t>
+          <t>在个人聊天还有群聊发送消息的过程中
+发送的字符超出了限制之后没有相关的提示</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>个人 聊天 群聊 发送 消息 过程 
+ 发送 字符 超出 限制 之后 没有 相关 提示</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>在软件的好友添加功能中，当用户成功添加一个好友后，进入与该好友的聊天页面时出现了一个显示错误。具体来说，聊天界面上展示的好友昵称与其实际设置或显示的昵称不匹配。这可能导致用户无法正确识别正在与之交谈的好友，从而产生沟通上的混淆和不便。</t>
+          <t>该软件中存在一个bug，即在清空群组消息后，消息并未完全被清除。尽管在聊天界面中可以清空所有消息，但是在打开群组设置后，用户仍然可以在聊天记录中找到这些已被清空的消息。这可能是由于软件在处理消息删除请求时出现了错误或延迟，导致消息未被正确更新至聊天记录中。</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>清空 群组 消息 消息 并未 完全 清除 聊天 界面 清空 消息 打开 群组 设置 仍然 聊天记录 找到 清空 消息 软件 处理 消息 删除 请求 出现 错误 延迟 消息 未 正确 更新 聊天记录</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>在朋友页面中选择联系人后，进入聊天设置页面进行操作。尝试删除一个好友并返回到朋友页面时，发现之前已删除的好友仍然显示在最近联系人列表中，这导致了数据不一致的问题。</t>
+          <t>该语音消息在接收时出现了异常的杂音现象，导致用户难以正常听取语音内容。</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>语音 消息 接收 出现 异常 杂音 现象 难以 正常 听取 语音 内容</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>删除好友后，用户尝试通过多种方法添加该好友时均遭遇了重复提示“好友已存在”的问题。无论是在“最近联系人”列表中、进入该好友的主页点击“添加好友”按钮，还是通过朋友页面进行搜索添加，系统均一致反馈“请求失败：请求的好友已在列表中”。这种错误反馈误导了用户，使他们无法重新添加已被删除的好友，这可能暗示了软件中存在某种逻辑错误或功能缺陷，导致系统误判或无法正确处理用户的添加好友请求。</t>
+          <t>历史消息的时间搜索选择当天之后的时间，消息记录仍然可以看到</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>历史 消息 时间 搜索 选择 当天 之后 时间 消息 记录 仍然 看到</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>该功能性错误表现在新建群并添加成员的流程中。在尝试搜索并添加应用程序中的人员时，系统无法正确识别和显示应添加的好友人员。这可能意味着搜索功能出现了故障，导致无法正确索引或检索到预期的用户列表，从而影响了群组管理的正常流程。</t>
+          <t>进行清空聊天消息记录时，删除成功后，在聊天历史记录时仍能查到消息记录</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>进行 清空 聊天 消息 记录 删除 成功 聊天 历史记录 能查 消息 记录</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>进入后点击创建，查找要添加的好友，但并没有显示你的好友列表</t>
+          <t>这个软件的@功能似乎存在不一致性。在某些情况下，用户可以成功地在消息中@自己，但在其他时候，该功能无法正常工作，导致用户无法@自己。这可能会导致用户在尝试执行某些操作时遇到困难，从而影响整体的使用体验。</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>软件 @ 不一致性 情况 成功 消息 @ 无法 正常 工作 无法 @ 执行 遇到困难 整体</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>在软件的“朋友”页面，用户点击了右上角的“发起群聊”按钮，并被要求选择至少一个好友以开始创建群聊。然而，当用户选择了至少一个好友并点击“确定”后，界面并没有如预期那样跳转到新建群的设置页面，而是停留在了当前页面，导致用户无法进行下一步操作。同时，尝试在群组页面执行相同的操作也遇到了相同的问题。</t>
+          <t>前提条件:群聊聊天记录中存在两条删除的消息
+复现步骤:进入历史记录删除的消息仍然存在</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>前提条件 : 群 聊聊天 记录 两条 删除 消息 
+ 复现 : 进入 历史记录 删除 消息 仍然</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>在软件界面中，用户试图一次性添加超过20个好友到新建的群聊时，系统并未给出任何提示或限制，导致用户可以无限制地继续添加好友。当用户选择并确认添加后，系统才显示创建失败的信息，表明添加的数量已超过允许的最大值。这种设计违反了预期的用户交互逻辑，可能会导致用户困惑和操作不便。</t>
+          <t>该bug发生在消息助手的时间选择功能中。用户在查看群消息记录时，尝试调整到2018年或之后的时间，这违反了系统设计原则，因为历史消息只能显示到当前时间之前的信息。</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>发生 消息 助手 时间 选择 查看 群 消息 记录 调整 2018 年 之后 时间 违反 系统 设计 原则 历史 消息 只能 当前 时间 之前 信息</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>这个软件中存在一个bug。具体表现为，用户可以在群聊中与搜索到的非好友用户进行聊天，并且无需将对方加为好友即可将其拉入群聊。此外，群聊的其他成员无法确认该用户的好友关系，这可能导致信息不对称或误导。例如，“东大街”并未与用户建立好友关系，但在搜索后可以直接发送消息。这种设计可能会造成隐私和信息安全的风险。</t>
+          <t>在软件的群消息助手和好友消息助手功能中，用户在查看消息界面时可以明显看到有未读消息存在。然而，当用户尝试点击查看更多消息时，系统并未显示任何消息记录。此现象表明软件在处理消息列表更新上存在缺陷，导致即使有新消息到来，用户也无法查看到具体的信息内容。</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>软件 群 消息 助手 好友 消息 助手 查看 消息 界面 明显 看到 未读 消息 点击 查看 更 消息 系统 并未 消息 记录 现象 表明 软件 处理 消息 列表 更新 缺陷 新 消息 到来 无法 查看 具体 信息内容</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>该软件存在一个显示问题，当用户更改其昵称后，在群聊和好友列表中无法正确更新显示新昵称。例如，用户“景威”将其昵称更改为“东大村”，但在群聊和好友列表中仍然显示为“景威”。</t>
+          <t>该软件界面显示的功能选项非常有限，没有提供撤回消息或其他常见聊天应用中常见的功能。用户可能会感到不便，因为缺乏这些基本功能限制了其实用性和用户友好性。</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>界面显示 选项 非常 有限 没有 提供 撤回 消息 常见 聊天 应用 常见 感到 不便 缺乏 基本功能 限制 实用性 友好 性</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>这个bug是在群聊中添加成员的功能出现了异常。在正常情况下，群聊中的成员应该是好友列表中的用户，但现在的问题是，不仅好友列表中的用户可以被添加，任何通过搜索功能找到的用户也可以被随意添加到群聊中，而不需要对方的同意。这违反了正常的社交软件的使用逻辑和隐私保护原则，可能会导致用户信息被滥用。</t>
+          <t>在这个群消息助手中未提示我对请求加入群组的消息是拒绝还是同意。应给出相对应的回复提示。‘同意请求’还是‘拒绝请求’</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>群 消息 助手 中未 提示 请求 加入 群组 消息 拒绝 同意 应 给出 相对 应 回复 提示 ‘ 同意 请求 ’ ‘ 拒绝请求 ’</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>在查看图集时，左右滑动切换图片功能似乎存在异常，用户必须先关闭该功能才能使用滑动切换。此外，当后台播放音乐时，在“杰迷吧”听歌会导致当前播放的歌曲暂停，这与预期的功能不符。另外，邀请好友加入群聊的操作似乎没有经过好友的同意确认，这可能违反了正常的社交互动规则。群公告的修改功能也存在问题，用户只能删除原有的公告并重新编写，而不能进行其他编辑操作。最后，修改字体大小的功能似乎只对聊天窗口有效，而对其他部分无效，这可能是界面设计上的不一致或者功能实现上的错误。</t>
+          <t>对于群消息的提示，不是免打扰就是所有消息都提示，不能屏蔽</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>群 消息 提示 免 打扰 消息 提示 不能 屏蔽</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>问题描述：
-该软件在执行“群组设置”中的“添加群成员”功能时，出现了一个明显的bug。预期结果是显示所有好友并展示他们的昵称，但实际结果却是显示了测试者的所有好友（有些只显示昵称）。这不符合预期的功能需求，可能导致用户在管理群组时遇到困扰。</t>
+          <t>用户消息提示问题，在自己的群里面发布公告，系统还会推送消息，说有公告产生，应该是别人发布公告，我不知道，系统才推送消息</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>消息 提示 群 里面 发布公告 系统 还会 推送 消息 说 公告 产生 应该 发布公告 知道 系统 推送 消息</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>这是一个显示好友搜索功能的界面。用户在发起群聊后尝试搜索，但实际结果显示的是与关键字相关的用户，而不是用户的好友列表。预期结果是用户的好友应该被优先展示，其他结果则根据相关性排列。</t>
+          <t>该软件界面中的历史消息查询功能似乎存在逻辑错误。用户在搜索栏中尝试输入现在以后的日期（如2017年）进行查询时，系统没有按照预期返回“暂无消息”。相反，它显示了从2016年12月16日至今的所有历史消息，这明显违背了问题描述中的“只能查找现在以前的消息”的要求。</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>界面 历史 消息 查询 逻辑 错误 搜索 栏中 输入 现在 以后 日期 2017 年 进行 查询 系统 没有 预期 返回 暂无 消息 相反 2016 年 12 月 16 日 历史 消息 明显 违背 只能 查找 现在 以前 消息 要求</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>该软件界面在好友消息助手中存在显示错误。当用户被添加为好友时，系统没有正确显示用户的选择结果，无论用户是同意还是拒绝，界面都显示“对方请求加您为好友”，这与实际的用户操作不符。</t>
+          <t>该软件在查询12月3日以前的日期时，显示了当天的聊天记录，而预期输出是“暂无消息”。这可能表明软件在处理历史消息查询时存在错误，特别是在跨年日期的情况下。</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>查询 12 月 日 以前 日期 当天 聊天记录 预期 输出 暂无 消息 表明 软件 处理 历史 消息 查询 错误 特别 跨 年 日期 情况</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>该软件在联系人搜索功能中存在明显的显示和逻辑错误。首先，当用户仅输入好友用户名的第一个字符时，搜索结果并未优先展示已添加的好友，这与预期的用户交互不符。其次，搜索结果在区分已添加好友和陌生人方面表现得不够明显，这可能导致用户难以快速找到所需的联系人。最后，搜索结果还展示了具有相同用户名的其他用户，这不仅增加了用户的混淆，而且可能影响用户对软件的信任度。</t>
+          <t>该软件在处理数字消息时存在一个bug。具体来说，当用户尝试编辑他们发送的数字消息的前面部分时，系统并没有正确地更新这些数字。例如，如果用户原本发送了“12345”，之后尝试编辑为“123”，系统会显示“12345”而不是“123”。这意味着编辑功能没有按照预期工作，导致用户无法准确、有效地修改他们的数字消息。</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>处理 数字 消息 具体来说 编辑 发送 数字 消息 前面 部分 系统 没有 正确 更新 数字 原本 发送 12345 之后 编辑 123 系统 12345 123 意味着 编辑 没有 预期 工作 无法 准确 有效 修改 数字 消息</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>该软件在发起群聊功能上存在缺陷，用户无法选择其好友作为群聊成员，只能选择最近联系人。此限制可能导致用户无法创建包含特定好友的群聊，从而降低了应用程序的实用性和用户满意度。</t>
+          <t>在手机的聊天应用中，存在一个功能缺失的问题。具体来说，用户无法通过设置来调整接收消息时的提示音或振动模式，只能依赖手机的媒体音量控制来实现这一点。这导致用户在需要集中注意力或处于安静环境下时，无法有效地管理聊天应用的通知，影响了用户体验。</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>手机 聊天 应用 缺失 具体来说 无法 设置 调整 接收 消息 提示音 振动模式 只能 依赖 手机 媒体 音量控制 实现 一点 集中 注意力 处于 安静 环境 下时 无法 有效 管理 聊天 应用 通知</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>在发起群聊时，当用户尝试通过关键字搜索并选择好友加入群聊时，系统错误地显示了与输入关键字不相关的陌生人列表。这可能导致用户无法找到他们想要添加的真正联系人，从而影响群聊的创建和功能。</t>
+          <t>红米note3手机上运行时会出现语音消息无法听取的现象</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>红米 note3 手机 运行 时会 出现 语音 消息 无法 听取 现象</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>在软件界面的“添加好友”功能中，用户在发送好友请求后，并未收到任何反馈信息。无论是成功发送提示还是失败告知，都没有在界面上出现。这导致用户无法判断他们的请求是否已经成功发送，增加了用户的不确定性和焦虑感。</t>
+          <t>测试“聊天消息”，进入界面是历史消息，且消息没有所发人员区分，不利于辨别是那些成员发送的消息。</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>聊天 消息 进入 界面 历史 消息 消息 没有 发 人员 区分 不利于 辨别 成员 发送 消息</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>在群聊界面中，添加好友的功能似乎出现了问题。用户尝试添加其他好友到群聊时，系统未能正确响应或显示相关操作。</t>
+          <t>陌生人被我拒绝了好友请求后扔可以给我发消息</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>陌生人 拒绝 好友 请求 扔 给我发 消息</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>问题描述：在好友选择功能中，用户在选择好友时没有上限的提示，导致用户无法得知他们已经选择了多少次好友。</t>
+          <t>该软件在接收系统消息时存在缺陷。首先，用户无法在手机的通知栏中看到来自系统的直接消息，这可能导致用户错过重要信息。其次，虽然用户可以查看未读的群聊消息，但系统消息并未明确显示“您已成功加入该群”，这可能会给用户造成混淆或不便。此外，从图片中可以看出，界面设计上似乎存在一些不一致性或错误，例如头像和名称的位置可能与预期不符。这些综合问题表明，该软件在处理系统消息通知方面存在问题，需要进一步的调试和优化。</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>接收 系统 消息 缺陷 无法 手机 通知 栏中 看到 系统 消息 错过 重要 信息 查看 未读 群聊 消息 系统 消息 并未 明确 成功 加入 该群 造成 混淆 不便 图片 看出 界面设计 不一致性 错误 头像 名称 位置 预期 不符 综合 表明 处理 系统 消息 通知 方面 进一步 调试 优化</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>在建立群聊功能中，用户只能通过添加好友来创建群聊，这限制了非好友之间的快速群组建立。此外，当多人处于同一位置时，若想建立群聊，还需手动逐个添加成员，这一过程繁琐且耗时。建议改进此功能，允许面对面建群，以便于用户在需要时能够更快捷地创建群聊。</t>
+          <t>该软件在处理好友请求消息后，并没有提供明确的操作提示来告知用户是选择同意还是拒绝。这使得用户无法明确知道他们的操作结果，可能导致误操作或混淆。</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>处理 好友 请求 消息 没有 提供 明确 提示 告知 选择 同意 拒绝 无法 明确 知道 误操作 混淆</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>在联系人中，没有修改备注这一功能，不能清楚的显示自己好友的名称，自己也不能修改好友在自己联系人列表中的称呼</t>
+          <t>这个bug描述了一个软件中的错误行为，即用户界面中出现了给自己发送消息的选项。根据问题描述和图片，我们可以看到一个聊天窗口中有一个蓝色的消息气泡，其中包含三个笑脸表情符号和一个感叹号。然而，根据常规的聊天应用设计，用户不应该能够给自己发送消息。这个bug可能是由于软件中的某个逻辑错误导致的，它允许了用户向自己发送消息的功能，而这个功能通常是被禁用的。</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>软件 错误行为 用户界面 出现 发送 消息 选项 图片 看到 聊天 窗口 中有 蓝色 消息 气泡 包含 三个 笑脸 表情符号 感叹号 常规 聊天 应用 设计 应该 能够 发送 消息 软件 逻辑 错误 允许 发送 消息 通常 禁用</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>该软件在创建群组并添加好友时，没有提供全选功能。用户需要手动选择每一个要添加的好友，这个过程既耗时又繁琐。</t>
+          <t>在进入群聊时，用户会收到系统通知并看到群消息。然而，当用户退出该群聊时，他们无法接收到任何新消息，并且没有系统提示表明他们已经离开该群聊。</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>进入 群聊 收到 系统 通知 看到 群 消息 退出 群聊 无法 接收 新 消息 没有 系统 提示 表明 离开 群聊</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>陌生人被我拒绝了好友请求后扔可以给我发消息</t>
+          <t>该软件在添加群成功的通知功能中存在明显的缺陷。用户在加入群聊后，并未收到预期的手机通知消息，而仅在群聊天的消息中看到了“某某某 已经成功加入该群”的提示。此外，系统消息中并没有相应的通知，导致用户无法得知自己已成功加入群组。这可能影响用户的使用体验，因为他们无法及时确认自己的操作结果。</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>添加 群 成功 通知 明显 缺陷 加入 群聊 并未 收到 预期 手机 通知 消息 而仅 群 聊天 消息 看到 某某某   成功 加入 该群 提示 系统 消息 没有 相应 通知 无法 得知 成功 加入 群组 无法 及时 确认</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>在创建群聊时，用户可以选择添加自己的好友加入群，也可以添加陌生人加入群，并且这种添加不需要经过被添加人的同意，即用户可以随意添加任何人进入一个群，这样会导致在使用该软件时，在毫无察觉的情况下被拉入自己并不想加入的群里面，被迫接受该群发送的消息或是垃圾广告，直到退出该群，极大的降低了用户体验。</t>
+          <t>该软件界面显示的好友消息助手的历史消息部分为空，没有展示任何历史消息记录。</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>界面显示 好友 消息 助手 历史 消息 部分 为空 没有 展示 历史 消息 记录</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>群不设置权限时，群邀请好友，群成员好友或陌生人，都不能拒绝入群，只能被邀请后就自动入群。</t>
+          <t>建议下版本添加“群消息助手删除”功能</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>建议 版本 添加 群 消息 助手 删除</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>在聊天页面点击搜索（放大镜标志），搜索好友名称，结果不能注明已经添加过的好友和陌生人，且没有优先顺序。</t>
+          <t>问题描述:用户申请加群发来的消息，审批一条后其余全部置灰
+前置条件:已近入群消息助手界面
+步骤:
+1.点击中间一条消息的拒绝
+预期结果:
+1.此消息及之前消息置灰后面申请不变
+实际结果:
+1.所有消息置灰</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>: 申请 加 群发 消息 审批 一条 置 灰 
+ 前置条件 : 已近 入群 消息 助手 界面 
+ : 
+ . 点击 中间 一条 消息 拒绝 
+ 预期 : 
+ . 消息 之前 消息 置 灰 后面 申请 不变 
+ : 
+ . 消息 置 灰</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>发起群聊的时候，邀请好友进群并不需要好友的同意，好友就已经进去群聊了</t>
+          <t>在进入发送消息界面时，用户发现显示的聊天界面不是他们预期的，而是之前已经查看过的。这个问题可能是由于软件内部的某些错误或配置问题导致的，导致应用程序没有正确地加载当前的聊天对话。</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>进入 发送 消息 界面 发现 聊天 界面 预期 之前 查看 软件 内部 错误 配置 应用程序 没有 正确 加载 当前 聊天 对话</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>该软件中存在一个bug，用户在尝试通过贴吧添加好友时遇到了问题。当用户输入其他用户的帐号时，系统无法完成添加好友的操作，并且无法在好友列表中找到已输入的帐号信息。</t>
+          <t>1.测试功能：接收消息收到提示音
+2.重现步骤：修改在设置中打开接收新消息提醒与声音提醒，并打开手机相应声音，与好友互动，接收好友信息收到提示音
+3.实际结果：无声音提醒
+4.预期结果：有声音提醒</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>. 接收 消息 收到 提示音 
+ . 重现 修改 设置 打开 接收 新 消息 提醒 声音 提醒 打开 手机 相应 声音 好友 互动 接收 好友 信息 收到 提示音 
+ . 声音 提醒 
+ . 预期 声音 提醒</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>该软件界面在“添加好友”功能中存在一个显示问题。用户在尝试修改已添加好友的备注时，发现无法进行此操作。这意味着用户无法更新或更改他们已添加联系人的备注信息，这可能会影响用户管理和组织他们的联系人列表。</t>
+          <t>该应用程序在创建新的群聊后，出现了一个不应该出现的提示消息“查看更多消息”。根据预期，新创建的群聊应该没有历史消息可供查看，因此这个提示消息是不正确的。这可能表明应用程序在处理新群聊的逻辑时存在问题，或者是用户界面的一个设计错误。</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>应用程序 创建 新 群聊 出现 应该 出现 提示 消息 查看 更 消息 预期 新创建 群聊 应该 没有 历史 消息 供 查看 提示 消息 正确 表明 应用程序 处理 新 群聊 逻辑 用户界面 设计 错误</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>该软件在用户尝试添加好友时，发送请求后没有给出任何反馈或提示，导致用户无法确认请求是否已成功发送。</t>
+          <t>在群组设置中，当用户尝试多次快速切换消息免打扰功能时，系统似乎出现了性能问题。这导致了无提示的界面，使得用户感觉像是系统一直处于等待状态，无法正常地完成操作。</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>群组 设置 多次 快速 切换 消息 免 打扰 系统 出现 性能 提示 界面 感觉 像是 系统 一直 处于 等待 状态 无法 正常 完成</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>在群设置中，当选择“允许任何人加入该群”时，被邀请的好友无法进行拒绝操作。无论是否认识被邀请的好友，他们都会被直接添加进群，且没有拒绝或身份识别的选项。</t>
+          <t>发送和接收到的语音消息大概率复现无声音。</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>发送 接收 语音 消息 概率 复现 声音</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>在好友更改用户名后，好友列表不自动刷新</t>
+          <t>在有网的情况下，消息发不出去。</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>网 情况 消息 发 出去</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>步骤2邀请好友入群的过程中，在已选中一个好友的情况下，选择第二个好友时，一个被选中的好友的头像会闪动，，在已选中第一个好友的情况下取消选择该好友，好友的头像会闪动。</t>
+          <t>该软件在发送和接收语音消息功能上存在缺陷。用户无法成功发送或接收语音消息，这可能导致通信中断或信息传递失败的问题。</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>发送 接收 语音 消息 缺陷 无法 成功 发送 接收 语音 消息 通信 中断 信息 传递 失败</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>该软件界面中，当用户勾选“最近联系人”中的好友后，在尝试取消勾选时，界面元素出现了闪烁现象。这种闪烁可能是由于某种动画效果或响应速度问题导致的。</t>
+          <t>进行完2操作后，消息提示仍显示未读，多次点击后才正常消失。(截图时间可证明)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>进行 完 消息 提示 未读 多次 点击 正常 消失 ( 截图 时间 证明 )</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>问题描述：在测试中，当尝试将好友加入群组时，没有执行预期的操作流程。预期的步骤是点击添加群成员后，需要好友同意才能加入。但是，实际结果中，好友被直接拉入群中，而没有经过确认过程。这可能导致了未授权访问的问题，并可能违反了隐私和安全政策。</t>
+          <t>描述：该软件在处理群聊验证消息时存在一个bug。当用户拒绝某位发送者的所有验证消息后，若该发送者稍后再次发送验证消息，并且该消息被用户点击同意，该发送者将能够加入群聊，尽管之前他们的所有消息都被拒绝了。</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>处理 群聊 验证 消息 拒绝 某位 发送者 验证 消息 若该 发送者 稍后 再次 发送 验证 消息 消息 点击 同意 发送者 能够 加入 群聊 之前 消息 拒绝</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>不能正常添加好友，也不能拒绝好友请求！用户极为不满意！</t>
+          <t>该软件中存在一个消息免打扰的bug。当用户启用此功能后，如果群聊中有新的消息，系统不会通过振动或提醒的方式通知用户，仅显示消息内容。这可能导致用户错过重要的群聊信息。</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>消息 免 打扰 启用 群聊 中有 新 消息 系统 不会 振动 提醒 方式 通知 仅 消息 内容 错过 重要 群聊 信息</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>在软件界面的好友添加部分，用户在输入验证信息时，文本区域出现了重叠现象。具体地，当用户输入验证信息后，下方的按钮和提示文字似乎被上方的文本覆盖，导致用户无法清晰地看到所有必要的信息。这种设计缺陷可能会影响用户体验，使得用户难以正确地完成添加好友的操作。</t>
+          <t>在这张图片中，用户在14:53申请加入一个群组。然而，系统似乎没有正确地发送拒绝消息给用户，因为屏幕上显示了“74%”和“73%”，这似乎是某种进度或状态指示器，而不是预期的拒绝消息。这表明系统可能未能正确处理用户的申请，或者其通知机制出现了故障。</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>图片 14 : 53 申请加入 群组 系统 没有 正确 发送 拒绝 消息 屏幕 74% 73% 某种 进度 状态 指示器 预期 拒绝 消息 表明 系统 未能 正确处理 申请 通知 机制 出现 故障</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>根据您提供的软件测试报告分析，问题描述如下：
-在尝试添加群组人员时，用户遇到了一个错误。尽管显示了“添加好友失败”的错误信息，但是返回界面后系统却意外地跳转到了输入法界面，这导致了用户体验的中断和不便。</t>
+          <t>创建群组后，尝试查看历史消息时，界面上出现了两个查询图标。当用户在输入框中输入“测试”并点击查询后，系统响应时间过长，没有在预期时间内显示查询结果。</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>创建 群组 查看 历史 消息 界面 出现 两个 查询 图标 输入框 输入 点击 查询 系统 响应 时间 过长 没有 预期 时间 查询</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>这个软件界面在添加联系人时存在显示问题。当用户尝试添加新的联系人到已满的头像框中时，尽管可以继续添加，但头像框并没有像预期的那样自动移动以容纳新的联系人。相反，头像框保持固定位置，导致用户无法看到新添加的联系人。这个问题可能会影响到用户的使用体验，特别是当他们试图管理或查看大量的联系人信息时。</t>
+          <t>该软件界面显示了一个聊天历史消息的功能。在查看特定日期（例如2013年）的历史消息时，出现了控件错位的问题。具体地，日期选择器和相应的日期标签似乎没有正确对齐，导致用户界面的视觉不协调。这种错位可能会影响用户对该功能的使用体验，因为错位的部分可能会遮挡或误导用户对信息的理解。</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>界面显示 聊天 历史 消息 查看 特定 日期 2013 年 历史 消息 出现 控件 错位 具体 日期 选择器 相应 日期 标签 没有 正确 对齐 用户界面 视觉 协调 错位 错位 部分 遮挡 误导 信息 理解</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>该软件在用户创建群组并尝试至少邀请一位好友时，显示的界面并不是用户期望的好友列表。相反，它展示的是最近联系人的列表，这导致用户需要通过旁边的搜索功能来查找并邀请他们的朋友，从而降低了用户体验。</t>
+          <t>个人设置页面隐藏太深导致修改编辑账户信息非常难找，体验非常差；查看历史消息记录页面非常简陋，跟其他地方风格不同</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>个人 设置 页面 隐藏 太深 修改 编辑 账户 信息 非常 难 找 非常 差 查看 历史 消息 记录 页面 非常 简陋 地方 风格 不同</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>聊天主界面有查找功能可以，只有查找好友的，没有查找群的功能</t>
+          <t>该软件中的历史消息页面在成功进入群聊后出现布局问题。用户点击历史消息后，进入的页面设计不符合审美标准，显示为不美观的布局。</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>历史 消息 页面 成功 进入 群聊 出现 布局 点击 历史 消息 进入 页面 设计 符合 审美 标准 不美观 布局</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>在这款手机应用中，好友分类功能似乎存在缺陷，导致用户无法根据预设的类别对联系人进行有效管理。此外，该应用也缺少备注好友信息的功能，这可能会影响用户之间的沟通和互动。这些问题降低了用户体验，可能导致用户对应用的整体满意度下降。</t>
+          <t>在查看历史消息的界面中，查询项的显示方式非常不协调和不美观。其布局和设计元素似乎没有经过合理的排版，导致整体视觉效果不佳。用户在使用过程中可能会感到不适，从而影响他们的使用体验。</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>查看 历史 消息 界面 查询 项 显示方式 非常 协调 不美观 布局 设计 元素 没有 合理 排版 整体 视觉效果 不佳 过程 感到 不适</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>在最近联系人里添加好友时，系统反馈了一个错误信息，提示“添加失败”，原因是“已添加”。这意味着用户尝试添加的好友已经存在于其手机通讯录或被标记为已添加。</t>
+          <t>在历史消息的界面中，存在两个搜索图标，其中下面的一个似乎是多余的。</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>历史 消息 界面 两个 搜索 图标 下面 多余</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>该软件界面中，“添加好友”的提示弹窗中，用户需要选择的操作有两个选项：“取消”和“同意”，而根据问题描述，正确的操作应该是“确定”。这显示了软件界面与预期功能之间的不一致。</t>
+          <t>在对帖子进行评论后，用户界面右上角的新消息红色圆点没有出现，表示没有收到新消息的通知。</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>帖子 进行 评论 用户界面 右上角 新 消息 红色 圆点 没有 出现 表示 没有 收到 新 消息 通知</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>该软件在“朋友”页面的群聊发起功能中存在缺陷。用户在点击“更多”后，尽管之前与某些联系人有过互动，但在建立群聊时，只能从已添加的好友列表中选择成员，而不能从最近联系人或活动记录中查找曾经互动过的联系人。这可能导致用户无法方便地找到并添加到群聊中的特定联系人，尤其是那些他们之前已经互动过但尚未添加为好友的用户。这种设计上的局限性可能会影响用户的体验和群聊的效率。</t>
+          <t>在进入朋友面板并点击好友消息助手后，用户尝试点击查看更多消息以访问历史消息界面。然而，在历史消息界面中，右侧的搜索图标尺寸异常大，这导致了用户界面的视觉不平衡。该设计缺陷可能会影响用户的使用体验，因为过大的图标可能遮挡重要的信息或功能，从而造成操作上的不便。</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>进入 朋友 面板 点击 好友 消息 助手 点击 查看 更 消息 访问 历史 消息 界面 历史 消息 界面 右侧 搜索 图标 尺寸 异常 用户界面 视觉 平衡 设计 缺陷 过大 图标 遮挡 重要 信息 造成 不便</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>在群聊界面中，用户的“我的群”和“好友”列表混杂在一起，导致用户难以区分哪些是群聊哪些是个人好友。这种设计上的混淆可能会造成用户的使用困扰，影响用户体验。</t>
+          <t>该界面显示了一个群组设置，其中“消息免打扰”选项被激活。当用户点击此选项时，一个提示框弹出，告知用户已开启消息免打扰功能。但根据提供的信息和图片，这个框的生命周期似乎非常短，导致用户体验不佳，误认为应用程序存在问题。</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>界面显示 群组 设置 消息 免 打扰 选项 激活 点击 选项 提示框 弹 出 告知 开启 消息 免 打扰 提供 信息 图片 框 生命周期 非常 短 不佳 误认为 应用程序</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>问题描述：
-在联系人列表中，删除的好友信息仍然存在，用户在尝试发送消息给已删除的好友时，系统并未给出任何提示表明该好友已被删除。此外，即使已经将该好友从列表中移除，用户仍可以向其发送信息，这可能导致用户误操作而不知道其实已经失去了与该好友的联系。</t>
+          <t>因为网络的原因，无法发出去的消息，长按，没有重新发送的按钮，体验不好。</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>网络 原因 无法 发出 消息 长 没有 重新 发送 按钮 不好</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>在群聊中选择陌生人后，最近联系人列表没有显示该陌生人。同时，当尝试从下方的待添加用户中点击某人的头像以添加他们时，系统会自动删除该用户而没有任何删除提示。</t>
+          <t>该软件在用户与已删除好友进行消息交流时，并未提供适当的系统通知。即使对方用户已经从好友列表中被移除，当前用户仍然可以发送消息，并且系统没有给出任何提示或警告来告知这种情况。这可能导致用户继续尝试与已经不存在的联系人进行交流，从而造成不必要的混淆和误解。</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>删除 好友 进行 消息 交流 并未 提供 适当 系统 通知 好友 列表 移除 当前 仍然 发送 消息 系统 没有 给出 提示 警告 告知 情况 继续 联系人 进行 交流 造成 不必要 混淆 误解</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>该软件在用户与已删除好友进行消息交流时，并未提供适当的系统通知。即使对方用户已经从好友列表中被移除，当前用户仍然可以发送消息，并且系统没有给出任何提示或警告来告知这种情况。这可能导致用户继续尝试与已经不存在的联系人进行交流，从而造成不必要的混淆和误解。</t>
+          <t>在群设置界面中，当用户试图设置消息免打扰时，提示信息显示得过于简短和迅速，导致用户在阅读完所有提示信息之前，提示就消失了。</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>群 设置 界面 试图 设置 消息 免 打扰 提示信息 过于 简短 迅速 阅读 完 提示信息 之前 提示 消失</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>在软件界面中，创建群聊的功能设计存在一个明显的功能性问题。当用户选择添加联系人以创建群聊时，他们无法一次性全选所有联系人，而只能逐一添加每个联系人。这种设计限制了用户的使用效率和便利性，可能会导致操作上的不便。建议开发者对这一功能进行优化，提供一个全选按钮或者批量添加联系人的选项，以提高用户体验。</t>
+          <t>该界面在查看历史消息的功能上存在设计缺陷，其视觉效果与市场上其他应用（如QQ）相比存在明显差距。用户在使用过程中可能会因此感到不适，影响用户体验。</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>界面 查看 历史 消息 设计 缺陷 视觉效果 市场 应用 QQ 相比 明显 差距 过程 感到 不适</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>非好友也可聊天，并且不可拉名单或者阻止信息等，这将造成可能受到骚扰但是没办法拒绝。</t>
+          <t>该软件在接收或发送语音消息时存在明显的功能性缺陷。用户无法听到他们收到的语音消息，或者他们自己发出的语音消息。这种问题可能是由于软件中的音频处理功能出现故障，或者是与设备的音频设置相关的技术问题导致的。</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>接收 发送 语音 消息 明显 功能性 缺陷 无法 听到 收到 语音 消息 发出 语音 消息 软件 音频 处理 出现 故障 设备 音频 设置 相关 技术</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>这个软件界面在好友请求通知部分存在设计缺陷。用户收到好友请求时，没有直接的入口去查看对方的详细资料，这给用户带来了不便，因为他们无法确认请求者的身份。此外，这样的设计可能会增加用户误加陌生人的风险。</t>
+          <t>该图像显示了一个手机聊天应用的界面，其中包含了复制和粘贴操作的多个示例。在聊天记录中，用户尝试复制并粘贴信息，但似乎没有成功覆盖原始消息。具体来说，当用户尝试通过“复制”功能选择文本时，文本被高亮显示，表明它已被选中。然而，当用户点击“粘贴”按钮时，文本并没有出现在预期的位置，而是覆盖了其他消息。这表明复制和粘贴功能可能没有正确地将选中的文本插入到指定位置，而是将其放置在了当前光标所在的位置，这导致了一系列重叠的消息。</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>手机 聊天 应用 界面 包含 复制 粘贴 多个 示例 聊天记录 复制 粘贴 信息 没有 成功 覆盖 原始 消息 具体来说 复制 选择 文本 文本 高亮 表明 选中 点击 粘贴 按钮 文本 没有 出现 预期 位置 覆盖 消息 表明 复制 粘贴 没有 正确 选中 文本 插入 指定 位置 放置 当前 光标 位置 一系列 重叠 消息</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>该软件在用户修改昵称后，并未实时更新加好友界面中显示的昵称。当用户尝试添加新昵称的好友时，系统仍然展示的是用户最初注册时的默认昵称，而不是他们所选择的新昵称。这可能导致好友无法正确识别当前用户，从而影响软件的用户交互体验。</t>
+          <t>消息在短暂时间内发送过多会被系统禁言，但依旧可以发送消息。</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>消息 短暂 时间 发送 过多会 系统 禁言 依旧 发送 消息</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>该软件在执行好友拉黑操作后，仍存在一个逻辑错误，导致被拉黑的好友能够被未经其同意的情况下直接拉入群聊中。这一行为违反了用户隐私和权限管理的基本规则，可能会对用户的个人信息安全造成威胁。</t>
+          <t>当有新人加入群聊或对方同意加好友请求时或其他情况时，朋友界面会有红色圆圈消息提示，点击对应消息查看，若点击的是头像再退出时，红色提示不会消失，只有点击头像后面的区域再退出时，红色提示才会消失</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>当有 新人 加入 群聊 同意 加 好友 请求 情况 朋友 界面 红色 圆圈 消息 提示 点击 对应 消息 查看 点击 头像 退出 红色 提示 不会 消失 点击 头像 后面 区域 退出 红色 提示 消失</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>该软件在用户界面的设计中存在一个明显的用户体验问题。当用户尝试邀请好友加入群聊时，系统允许一次最多选择20个好友，但当用户试图选择超过这个数量的好友时，系统并不会立即给予反馈，而是在用户确认后才会告知不能选择多于20个好友。这种设计导致新用户在第一次使用时可能会浪费时间在选择好友上，因为他们可能不知道可以一次选择的最大数量限制。为了提高用户体验，建议在用户开始选择好友前就明确告知一次选择的最大数量，并在超过这个数量时禁止继续选择，这样可以防止用户白费功夫并节省他们的时间。</t>
+          <t>点击群消息助手时，有时可能出现进不去的情况，需要二次点击才能进去</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>点击 群 消息 助手 出现 进不去 情况 二次 点击 进去</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>该软件在用户尝试创建群组并添加好友时，存在一个关键性的问题。具体来说，当用户尝试添加的好友数量超过系统设定的限制时，软件并未在添加好友的过程中提供任何形式的提示或警告。相反，这个提示只在用户确认创建群组后才出现，而且这个提示的信息并不明确，无法为用户提供足够的信息来理解发生了什么。这可能会导致用户感到困惑，不知道他们的操作是否成功，或者他们是否需要采取进一步的行动。</t>
+          <t>首次打开JayMe尝试发送语音消息时，在”JayMe正在尝试通话录音和本地录音“弹框中选择”拒绝“后，之后每次发送语音消息时只提示”录音太短“。【PS：对比QQ，会提醒用户录音权限已关闭，需手动设置打开】</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>首次 打开 JayMe 发送 语音 消息 JayMe 正在 通话录音 录音 弹框 选择 拒绝 之后 每次 发送 语音 消息 提示 录音 太短 PS QQ 提醒 录音 权限 关闭 需 手动 设置 打开</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>在发起群聊并尝试添加群聊好友时，用户界面存在明显的性能问题。当用户选择要添加到群聊的好友时，已选好友和正在被选中的好友的头像都会发生跳动（加载），这暗示了图像加载速度缓慢。这种跳动现象可能是由于软件内部处理图像加载的速度不够快，或者是由于手机硬件性能的限制导致的。这个问题可能会导致用户的等待时间过长，从而影响用户体验。</t>
+          <t>图片中显示的语音消息在播放时出现了杂音，这可能意味着语音消息在传输或录制过程中受到了干扰，导致其质量下降。</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>图片 语音 消息 播放 出现 杂音 意味着 语音 消息 传输 录制 过程 干扰 质量 下降</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>该软件在用户试图添加好友时，界面出现了一个逻辑错误。用户在选择“同意”或“取消”按钮后，并没有得到预期的操作反馈或者结果，导致用户无法继续进行下一步操作。</t>
+          <t>在中国联通的群组设置页面中，用户有时无法正常操作“消息免打扰”选项，或者在选择该选项时反应延迟。</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>中国联通 群组 设置 页面 无法 正常 消息 免 打扰 选项 选择 选项 反应 延迟</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>在发起群聊时，该功能允许用户邀请非好友加入群聊。然而，这种设计可能导致用户的困扰，因为他们可能不愿意接受不是好友的邀请。这可能会降低用户的使用体验，并导致他们对该应用的信任度下降。</t>
+          <t>在群组设置界面中，当用户试图点击消息免打扰选项时，出现的提示框信息显示时间过短，以至于用户无法完全阅读提示内容。这可能导致用户误操作或对功能产生误解。</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>群组 设置 界面 试图 点击 消息 免 打扰 选项 出现 提示框 信息 时间 短 无法 完全 阅读 提示 内容 误操作 产生误解</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>该界面在用户试图通过“发起群聊”功能创建群组时存在设计缺陷。当用户的最近联系人列表为空时，界面并未提供除搜索框之外的其他直接添加好友到群聊的方式，导致用户必须手动搜索并添加每一个想要一起聊天的好友。这样的设计不仅增加了用户的使用负担，也降低了应用程序的整体用户体验，使得创建群聊的过程变得相对繁琐和不直观。</t>
+          <t>该聊天应用在设置好友免打扰时，其提示时间过短，导致用户可能无法及时了解或调整免打扰的开启时长，从而影响了用户的使用体验。</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>聊天 应用 设置 好友 免 打扰 提示 时间 短 无法 及时 了解 调整 免 打扰 开启 长</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>该软件界面中，“发起群聊”功能并未提供直接添加自己好友的选项，导致用户在尝试创建群聊时可能会感到不便。这种设计可能增加了用户的操作复杂性，影响了用户体验。</t>
+          <t>该软件界面在用户试图设置消息免打扰时，出现了一个短暂的弹出对话框。这个对话框的持续时间过短，导致用户可能会误认为软件中存在其他问题。</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>界面 试图 设置 消息 免 打扰 出现 短暂 弹出 对话框 对话框 持续时间 短 误认为 软件</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>该软件界面在添加群成员功能上存在缺陷，导致用户无法全选并邀请好友加入群聊。此问题可能会降低用户的使用体验，因为他们不能一次性地将多个联系人添加到群组中。</t>
+          <t>该软件在处理不同群组消息通知时存在逻辑错误。当用户在当前聊天页面收到另一个群组的消息通知并点击进入时，系统错误地新建了一个聊天页面而不是切换到目标群组的聊天页面，这与用户的正常使用习惯不符。此外，如果用户在A群组的聊天页面下收到B群组的消息并点击进入，之后再收到A群组的消息并点击，系统会错误地新建一个A群组的聊天页面而非切换回之前的聊天页面，这进一步增加了用户操作的复杂性和不便。</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>处理 不同 群组 消息 通知 逻辑 错误 当前 聊天 页面 收到 群组 消息 通知 点击 进入 系统 错误 新建 聊天 页面 切换 目标 群组 聊天 页面 正常 习惯 不符 A 群组 聊天 页面 收到 B 群组 消息 点击 进入 之后 收到 A 群组 消息 点击 系统 错误 新建 A 群组 聊天 页面 非 切换 回 之前 聊天 页面 进一步 增加 复杂性 不便</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>该聊天应用在设置好友免打扰时，其提示时间过短，导致用户可能无法及时了解或调整免打扰的开启时长，从而影响了用户的使用体验。</t>
+          <t>该软件在发起群聊后，当用户在群聊中只发送一条消息且未满一屏时，屏幕最上方出现了“查看更多消息”的提示。然而，根据问题描述，这个提示应该在消息满一屏时才出现。因此，当前的界面布局与用户需求不符，可能导致用户的困惑或误操作。</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>发起 群聊 群聊 发送 一条 消息 未满 一屏 屏幕 上方 出现 查看 更 消息 提示 提示 应该 消息 满一屏 出现 当前 界面 布局 需求 不符 困惑 误操作</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>问题描述：在软件中，当用户尝试通过搜索好友来建立群聊时，虽然用户的好友列表被正确地显示出来，但该列表与非好友的部分之间没有明确的视觉区分。具体来说，“流年似水梦归处”这一名称的用户被标记为好友，但在界面上并没有使用标签或其他方式来明确区分她与其他非好友用户。这导致了视觉效果上的不一致和用户体验的不协调。</t>
+          <t>该应用程序在“消息免打扰”功能设置后，没有提供任何视觉或文字提示来告知用户他们已经开启了此功能。这可能导致用户误操作后无法接收到相关群组的消息通知，从而影响用户的正常使用和沟通。</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>应用程序 消息 免 打扰 设置 没有 提供 视觉 文字 提示 告知 开启 误操作 无法 接收 相关 群组 消息 通知 正常 沟通</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>该软件的用户界面中，“好友”分组功能似乎出现了故障。用户无法对好友进行分组操作，这可能导致用户无法根据不同的标准或条件对他们的联系人进行分类和组织。此问题可能会影响到用户的通讯录管理效率，从而影响用户体验。</t>
+          <t>问题描述：在新用户邀请好友创建完群组后，在尝试设置群消息免打扰模式时，App的响应速度过快，导致设置结果的通知提示出现得过于迅速，使得用户无法及时看清设置的结果。这种情况可能会影响用户的使用体验，因为他们不能立即得知设置是否成功，从而可能感到困惑或不便。</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>新 邀请 好友 创建 完 群组 设置 群 消息 免 打扰 模式 App 响应速度 过快 设置 通知 提示 出现 过于 迅速 无法 及时 看清 设置 情况 不能 立即 得知 设置 是否 成功 感到 困惑 不便</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>在手机的聊天应用中，当收到一个好友请求时，用户点击“同意”后，原本应该可以直接进入与该好友的聊天界面。然而，在这张图片中，尽管用户已经点击了“同意”，但在试图找到并进入与新好友的聊天界面时，却找不到相应的入口。这可能是因为某种软件故障或设计缺陷导致的。</t>
+          <t>在正常使用过程中并未发现什么问题，测试设计的各项内容均能正常使用。有个问题，就是在发图片时，如果图片较大，发送延时，本来是在其他聊天消息之前的，由于发送慢，在其他消息发送后才完全发出，导致聊天界面混乱。</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>正常 过程 并未 发现 设计 各项 内容 均 正常 有个 发图片 图片 较大 发送 延时 本来 聊天 消息 之前 发送 慢 消息 发送 完全 发出 聊天 界面 混乱</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>点击创建群聊，下面可勾选最近联系人添加进群聊。当最近联系人消息清空后，不显示最近联系人的信息。新建群，添加成员时，希望增加勾选好友的功能，不用费更多时间再去查找已有好友添加进群聊。</t>
+          <t>在群助手中，当其他用户申请加入群时，该消息不仅在本群内显示，还显示在群助手中。这种设计可能导致群助手的消息列表变得混乱和难以管理，特别是当有大量此类消息时。</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>群 助手 申请加入 群时 消息 群内 群 助手 设计 群 助手 消息 列表 变得 混乱 难以 管理 特别 大量 此类 消息</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>在软件的好友添加功能中，用户在成功添加好友后，无法为其设置备注姓名。这导致当用户拥有大量好友时，难以区分和记忆每个好友的姓名，从而给用户带来了极大的不便。</t>
+          <t>在软件界面设计中，系统消息提示与最近联系人的显示位置被合并在一起，这可能导致用户界面混乱和用户体验下降。当用户尝试查看他们的最近联系人时，可能会被突然弹出的加群提示或其他系统消息干扰，这可能影响用户的操作流畅性。</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>软件 界面设计 系统 消息 提示 最近 联系人 位置 合并 一起 用户界面 混乱 下降 查看 最近 联系人 突然 弹出 加群 提示 系统 消息 干扰 流畅性</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>在这张图片中，显示了一个联系人界面。根据问题描述，当好友改名后，最近联系人、好友列表和对话框中的昵称没有更新，仍然显示为改名前的昵称。只有在其个人主页中才能看到新的昵称。这可能表明该联系人软件存在一个bug，即在好友改名后的更新信息同步存在延迟或错误，导致在不同界面显示的昵称不一致。</t>
+          <t>在查好群的输入框中输入“～^O^”时，下面没有任何提示消息。</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>查 群 输入框 输入 ～ ^ O ^ 下面 没有 提示 消息</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>该bug描述为：在添加好友后，用户的名字显示为123。当好友改名为456之后，在用户的好友列表中名字没有更新，仍然显示为123。但在查看好友信息时，其名字却正确地显示为456。</t>
+          <t>在步骤1中，当用户尝试进入“更多”选项并测试“消息免打扰”功能时，遇到了一个界面闪现的问题。由于这个突然的界面变化，提示信息迅速闪烁而过，导致用户无法清晰地看到具体的提示内容。这样的用户体验问题可能会使用户感到困惑或沮丧，因为他们无法有效地使用或了解该功能。</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>进入 更 选项 消息 免 打扰 遇到 界面 闪现 突然 界面 变化 提示信息 迅速 闪烁 无法 清晰 看到 具体 提示 内容 感到 困惑 沮丧 无法 有效 了解</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>该应用程序存在一个软件缺陷，导致用户可以在没有对方接受邀请的情况下将非好友添加到群聊中。此问题可能会对用户的隐私和安全造成潜在风险。</t>
+          <t>不经过同意便可以给陌生人发送消息，拉黑后才能防止骚扰。但是，创建群聊时可以拉入陌生人，并且不需要经过他同意。就算用户被拉黑，也能将拉黑他的人拉入群。这很容易让用户遭受骚扰，并且拉黑也不能阻止骚扰</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>同意 便 陌生人 发送 消息 拉 黑后 防止 骚扰 创建 群聊 拉 入 陌生人 同意 拉 黑 拉 黑 人拉入 群 容易 遭受 骚扰 拉 黑 不能 阻止 骚扰</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>创建群时，必须选择一个好友，不然不能创建。</t>
+          <t>该软件界面显示用户尝试发送消息，但消息无法成功发送。尽管网络连接正常并且有速度显示，但消息按钮似乎没有反应或被禁用。这可能表明一个功能性的问题，即消息发送功能可能出现了故障或错误。</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>界面显示 发送 消息 消息 无法 成功 发送 网络连接 正常 速度 消息 按钮 没有 反应 禁用 表明 功能性 消息 发送 出现 故障 错误</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>该应用程序在收到陌生人的好友请求时，并未提供足够的信息来让用户了解对方的身份。用户无法查看对方的个人资料或获取任何关于他们的背景信息，这限制了用户与新联系人互动的能力，可能导致沟通不畅或误解。</t>
+          <t>如果有人发送一长段文字，或者是一长段表情，接收群组里的长消息时，此消息被分割成很多段。用户体验差。</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>有人 发送 一长 段 文字 一长 段 表情 接收 群组 里 长 消息 消息 分割 成 很多 段 差</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>问题描述：在尝试添加好友时，用户在第一次添加好友后再次尝试添加，系统仍然弹出了确认添加好友的窗口。这可能表明系统的缓存或记忆机制存在问题，导致即使用户已经确认过操作，系统仍旧认为需要再次确认。</t>
+          <t>在群聊功能中，用户试图查看历史消息时，界面的跳转导致了一个视觉和用户体验的问题。具体来说，历史消息的排版显得非常粗糙，关键字和日期的搜索框没有按照统一的格式或风格排列，给人一种混乱和不协调的感觉。此外，界面缺少下拉刷新的功能，这可能会影响用户更新信息的体验。</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>群聊 试图 查看 历史 消息 界面 跳转 视觉 具体来说 历史 消息 排版 显得 非常 粗糙 关键字 日期 搜索 框 没有 统一 格式 风格 排列 一种 混乱 协调 感觉 界面 缺少 拉 刷新 更新 信息</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>在创建群聊的界面中，当用户选择多个好友并试图滑动到最新选中的好友时，下方的列表并没有如预期那样滑动，而是停留在了之前的好友上。</t>
+          <t>在聊天界面，当用户发送消息时，仅显示好友的名字，而没有展示自己的聊天昵称。这种情况可能会给用户带来混淆和不便，因为他们无法清楚地知道自己是谁，以及他们的消息是由谁发出的。</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>聊天 界面 发送 消息 仅 好友 名字 没有 展示 聊天 昵称 情况 带来 混淆 不便 无法 清楚 知道 消息 发出</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>新建群聊无法直接添加好友，只能直接勾选最近联系人和通过用户名搜索后选中</t>
+          <t>在“历史消息”界面中，用户点击进入并尝试搜索时，系统的反应速度明显减慢，加载时间过长导致用户体验下降。</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>历史 消息 界面 点击 进入 搜索 系统 反应速度 明显 减慢 加载 时间 过长 下降</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>该软件的搜索功能在群聊和好友查找上存在明显不便，与平板版本的QQ相比，用户体验效果显著较差。</t>
+          <t>该软件在删除聊天消息记录后，删除按钮没有正确地变为灰色，导致用户可以反复进行无用的删除操作。</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>删除 聊天 消息 记录 删除 按钮 没有 正确 变为 灰色 反复 进行 无用 删除</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>在软件的“邀请好友加群”功能中，存在一个bug，使得用户在邀请好友加入群聊时，被邀请者无需同意即可自动加入。此外，在“朋友”界面中搜索目标群时，出现了搜索失败的问题，导致用户无法通过搜索找到所需的群聊。</t>
+          <t>在测试“消息免打扰”功能时，用户界面出现短暂的闪烁，导致提示信息无法被清晰阅读。这极大地影响了用户的使用体验，并被认为是一个严重的质量问题。</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>消息 免 打扰 用户界面 出现 短暂 闪烁 提示信息 无法 清晰 阅读 极大 认为 严重 质量</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>好友，自己群组聊天中的背景图片不能修改。</t>
+          <t>群功能问题有时创建群，对方手机不显示其在群中也无法收到消息</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>群 创建 群 手机 群中 无法 收到 消息</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>群组和好友列表没有刷新功能</t>
+          <t>软件消息提示是与本机的铃声音量相连接的，但一般人都会把铃声音量开的比较高，这样有消息提示的时候声音就显得比较大，比较刺耳了</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>软件 消息 提示 本机 铃声 音量 相连接 铃声 音量 开 比较 高 消息 提示 声音 显得 比较 比较 刺耳</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>添加群好友时，多次点击同一个好友，好友头像会闪动。</t>
+          <t>在聊天界面中，联系人列表显示存在逻辑错误。给自己发送消息的联系人并没有按照时间顺序或特定的排序规则排列，而是与未给自己发送消息的用户混合在一起。这种排列方式不符合用户的期望和习惯，可能会对用户体验造成不便。</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>聊天 界面 联系人 列表 逻辑 错误 发送 消息 联系人 没有 时间 顺序 特定 排序 规则 排列 未 发送 消息 混合 一起 排列 方式 符合 期望 习惯 造成 不便</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>不能修改好友备注，当好友太多的时候，分不清谁是谁，建议添加好友备注。</t>
+          <t>在进行测试，发现：
+1、群主身份，更改成功，并无更改成功消息提示
+2、不是群主身份，无法更改，却无无法更改消息提示</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>进行 发现 
+ 群主 身份 更改 成功 更改 成功 消息 提示 
+ 群主 身份 无法 更改 无法 更改 消息 提示</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>点击好友头像，进入聊天页面，可无限循环进入好友聊天页面</t>
-        </is>
+          <t>聊天界面消息查看，当还没有到下一屏幕时，还有文字提示标签，屏幕转换不流畅用户体验差，严重程度较轻</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>聊天 界面 消息 查看 没有 屏幕 文字 提示 标签 屏幕 转换 流畅 差 严重 程度 轻</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B655"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>发送</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>聊天</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>免</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>打扰</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>接收</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>助手</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>语音</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>记录</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>拒绝</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>查询</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>屏幕</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>非常</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>同意</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>位置</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>聊天记录</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>拉</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>声音</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>标签</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>联系人</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>清空</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>年</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>编辑</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>打开</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>红色</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>布局</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>更改</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>短</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>在软件的好友管理功能中，用户无法进行分类和备注操作，导致好友管理体验不佳。</t>
-        </is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>问题描述：在尝试将新的联系人添加到最近联系人列表时，系统显示添加失败，错误信息表明该联系人已经存在于列表中。</t>
-        </is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>删除好友后‘，好友仍在列表中</t>
-        </is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>及时</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>头像</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>混乱</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>盒子</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>复制</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>误操作</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>文本</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>一条</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>数字</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>粘贴</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>发出</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>骚扰</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>录音</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>黑</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>最近</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>故障</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>完全</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>调整</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>迅速</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>置</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>申请</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>重要</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>陌生人</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>切换</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>短暂</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>文字</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>提示音</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>完</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>发送者</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>阅读</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>未读</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>错位</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>灰</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>长</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>协调</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>排列</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>差</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>回复</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>栏中</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>帖子</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>仅</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>历史记录</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>认为</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>比较</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>特定</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>误导</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>干扰</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>段</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>开启</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>或点</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>风格</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>误认为</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>右上角</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>栏</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>jayme</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>选中</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>不美观</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>赞</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>能够</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>处于</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>以前</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>加</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>暂无</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>视觉效果</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>时会</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>查找</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>现在</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>互动</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>覆盖</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>感觉</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>发</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>加载</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>质量</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>反应</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>中有</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>转换</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>了解</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>进去</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>禁用</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>弹出</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>对话框</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>进一步</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>响应</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>界面设计</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>保持</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>框</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>该群</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>后面</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>最新消息</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>错过</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>习惯</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>规则</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>前面</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>一长</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>清晰</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>听取</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>下面</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>当天</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>排版</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>不一致性</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>过于</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>不适</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>跨越</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>铃声</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>复现</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>闪烁</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>杂音</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>上方</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>延迟</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>原则</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>卸载</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>提示框</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>里</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>过长</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>输入框</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>两个</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>当有</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>遮挡</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>注意力</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>显得</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>对应</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>严重</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>‘</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>申请加入</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>突然</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>一起</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>身份</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>方式</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>’</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>常见</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>功能性</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>交流</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>不会</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>发布公告</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>音频</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>推送</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>qq</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>音量</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>^</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>撤回</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>适当</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>放置</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>进不去</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>不好</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>生命周期</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>二次</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>首次</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>听到</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>过多会</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>激活</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>重叠</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>弹</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>一系列</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>正在</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>通话录音</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>设备</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>指定</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>过大</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>网络</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>原始</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>新人</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>相比</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>差距</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>简短</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>原因</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>依旧</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>光标</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>示例</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>移除</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>高亮</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>禁言</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>圆圈</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>插入</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>技术</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>～</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>弹框</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>网络连接</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>统一</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>粗糙</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>跳转</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>很多</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>成</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>分割</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>表情</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>有人</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>速度</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>阻止</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>一种</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>遭受</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>容易</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>人拉入</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>入</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>防止</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>黑后</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>便</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>沮丧</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>变化</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>闪现</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>格式</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>缺少</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>每次</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>群中</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>程度</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>流畅</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>混合</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>顺序</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>刺耳</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>高</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>开</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>相连接</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>本机</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>极大</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>刷新</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>无用</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>反复</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>灰色</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>变为</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>减慢</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>反应速度</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>清楚</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>名字</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>o</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>尺寸</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>查</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>持续时间</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>满一屏</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>一屏</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>未满</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>发起</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>复杂性</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>回</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>非</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>目标</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>产生误解</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>流畅性</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>中国联通</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>录制</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>传输</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>播放</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>需</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>关闭</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>权限</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>ps</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>太短</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>需求</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>模式</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>加群</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>合并</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>此类</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>大量</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>变得</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>群内</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>群时</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>慢</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>本来</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>延时</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>较大</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>发图片</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>有个</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>均</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>各项</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>立即</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>看清</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>过快</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>响应速度</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>app</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>平衡</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>感叹号</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>右侧</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>相对</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>中未</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>性</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>友好</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>实用性</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>基本功能</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>有限</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>信息内容</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>到来</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>两条</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>聊聊天</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>前提条件</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>遇到困难</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>能查</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>找到</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>清除</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>超出</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>检索</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>拒绝请求</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>屏蔽</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>里面</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>还会</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>集中</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>一点</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>实现</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>音量控制</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>媒体</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>依赖</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>振动模式</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>缺失</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>跨</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>输出</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>违背</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>以后</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>产生</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>公告</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>说</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>存储</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>无法访问</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>晴朗</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>排序功能</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>随机</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>杰迷</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>具体表现</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>黑色</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>几条</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>海洋</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>天空</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>背景</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>意外</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>行驶</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>公路</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>轿车</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>运动型</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>白色</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>一辆</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>安全漏洞</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>元</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>优先</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>点赞</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>触发</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>点</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>范围</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>预设</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>超过</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>讨论组</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>避免</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>简洁</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>时才</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>提升</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>分散</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>必要</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>不当</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>群则</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>群在</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>呈现</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>前</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>分钟</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>最新</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>详情</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>或赞</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>标记</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>安静</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>环境</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>下时</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>再次</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>指示器</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>进度</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>某种</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>73%</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>振动</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>启用</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>稍后</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>红米</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>若该</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>某位</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>证明</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>传递</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>中断</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>通信</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>正确处理</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>机制</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>控件</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>面板</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>表示</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>圆点</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>多余</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>合理</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>元素</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>显示方式</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>项</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>标准</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>审美</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>地方</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>简陋</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>找</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>难</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>太深</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>隐藏</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>理解</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>对齐</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>选择器</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>出去</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>网</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>概率</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>通常</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>常规</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>表情符号</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>笑脸</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>三个</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>气泡</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>蓝色</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>窗口</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>错误行为</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>优化</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>调试</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>方面</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>综合</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>看出</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>给我发</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>扔</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>辨别</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>不利于</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>运行</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>note3</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>离开</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>而仅</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>一直</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>像是</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>快速</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>供</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>新创建</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>重现</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>对话</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>配置</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>内部</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>不变</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>中间</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>入群</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>已近</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>审批</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>群发</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>版本</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>为空</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>某某某</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>轻</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
